--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/13baqtoDataBrokenIMGListForMobile.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/13baqtoDataBrokenIMGListForMobile.xlsx
@@ -12,171 +12,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>0  Game Provider Name = LuckyGaming   Game Name =  Alchemy Potions  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/AlchemyPotions.png</t>
-  </si>
-  <si>
-    <t>7  Game Provider Name = LuckyGaming   Game Name =  Canal Towns  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/CanalTowns.png</t>
-  </si>
-  <si>
-    <t>10  Game Provider Name = LuckyGaming   Game Name =  Chi Bi  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/ChiBi.png</t>
-  </si>
-  <si>
-    <t>14  Game Provider Name = LuckyGaming   Game Name =  Da San Yuan  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/DaSanYuan.png</t>
-  </si>
-  <si>
-    <t>18  Game Provider Name = LuckyGaming   Game Name =  DuoBao Gold  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/DuoBaoGold.png</t>
-  </si>
-  <si>
-    <t>21  Game Provider Name = LuckyGaming   Game Name =  Fa Da Cai  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/FaDaCai.png</t>
-  </si>
-  <si>
-    <t>24  Game Provider Name = LuckyGaming   Game Name =  Fortune Twins PK  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/FortuneTwinsPK.png</t>
-  </si>
-  <si>
-    <t>32  Game Provider Name = LuckyGaming   Game Name =  Golden Mouse  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/GoldenMouse.png</t>
-  </si>
-  <si>
-    <t>33  Game Provider Name = LuckyGaming   Game Name =  Golden Mouse Caishen  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/GoldenMouseCaishen.png</t>
-  </si>
-  <si>
-    <t>40  Game Provider Name = LuckyGaming   Game Name =  Hell's King  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Hell'sKing.png</t>
-  </si>
-  <si>
-    <t>41  Game Provider Name = LuckyGaming   Game Name =  Hobbit's Treasure  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Hobbit'sTreasure.png</t>
-  </si>
-  <si>
-    <t>43  Game Provider Name = LuckyGaming   Game Name =  Hu Hu Hu  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/HuHuHu.png</t>
-  </si>
-  <si>
-    <t>50  Game Provider Name = LuckyGaming   Game Name =  Lion Dance  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/LionDance.png</t>
-  </si>
-  <si>
-    <t>63  Game Provider Name = LuckyGaming   Game Name =  Rocket Man  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Rocket%20Man.png</t>
-  </si>
-  <si>
-    <t>67  Game Provider Name = LuckyGaming   Game Name =  ShangHai 1920  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/ShangHai1920.png</t>
-  </si>
-  <si>
-    <t>69  Game Provider Name = LuckyGaming   Game Name =  Stone Age  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Stone%20Age.png</t>
-  </si>
-  <si>
-    <t>71  Game Provider Name = LuckyGaming   Game Name =  Super Dragon PK  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/SuperDragonPK.png</t>
-  </si>
-  <si>
-    <t>75  Game Provider Name = LuckyGaming   Game Name =  Treasure Hunting  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Treasure%20Hunting.png</t>
-  </si>
-  <si>
-    <t>76  Game Provider Name = LuckyGaming   Game Name =  Triple Golden Toad  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/TripleGoldenToad.png</t>
-  </si>
-  <si>
-    <t>78  Game Provider Name = LuckyGaming   Game Name =  Under Water  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Under%20Water.png.png</t>
-  </si>
-  <si>
-    <t>83  Game Provider Name = LuckyGaming   Game Name =  Western Venture  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/WesternVenture.png</t>
-  </si>
-  <si>
-    <t>84  Game Provider Name = LuckyGaming   Game Name =  Wild West  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/Wild%20West.png</t>
-  </si>
-  <si>
-    <t>331  Game Provider Name = Microgaming   Game Name =  BankoftheNile  src = https://resources.{p}/products/BankoftheNile.jpg</t>
-  </si>
-  <si>
-    <t>511  Game Provider Name = Microgaming   Game Name =  BookOfSouls  src = https://resources.{p}/products/BookOfSouls.jpg</t>
-  </si>
-  <si>
-    <t>532  Game Provider Name = Greentube   Game Name =  BookOfRaDeluxe6  cod = 404   src = https://resources.baqto.com/products/greentube/mobile/book-of-ra-deluxe.png</t>
-  </si>
-  <si>
-    <t>667  Game Provider Name = Microgaming   Game Name =  CheekyFruits6Deluxe  src = https://resources.{p}/products/CheekyFruits6Deluxe.jpg</t>
-  </si>
-  <si>
-    <t>947  Game Provider Name = Microgaming   Game Name =  Dream3Team  src = https://resources.{p}/products/Dream3Team.jpg</t>
-  </si>
-  <si>
-    <t>975  Game Provider Name = EGT   Game Name =  Egypt Sky  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>1000  Game Provider Name = Microgaming   Game Name =  EliteofEvil:PortalofGold  src = https://resources.{p}/products/EliteofEvil:PortalofGold.jpg</t>
-  </si>
-  <si>
-    <t>1018  Game Provider Name = Microgaming   Game Name =  EternalShogi  src = https://resources.{p}/products/EternalShogi·jpg</t>
-  </si>
-  <si>
-    <t>1125  Game Provider Name = Microgaming   Game Name =  FootballStarDeluxe  src = https://resources.{p}/products/FootballStarDeluxe.jpg</t>
-  </si>
-  <si>
-    <t>1182  Game Provider Name = Microgaming   Game Name =  FruitPunchUp  src = https://resources.{p}/products/FruitPunchUp·jpg</t>
-  </si>
-  <si>
-    <t>1202  Game Provider Name = Microgaming   Game Name =  Fruitsand777's  src = https://resources.{p}/products/Fruitsand777's·jpg</t>
-  </si>
-  <si>
-    <t>1367  Game Provider Name = Microgaming   Game Name =  Goldilocks  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>1421  Game Provider Name = Leander   Game Name =  Hattrick Heroes  cod = 403   src = https://static.egamings.com/games/leander/?attrick_?eroes.jpg</t>
-  </si>
-  <si>
-    <t>1503  Game Provider Name = Microgaming   Game Name =  HotInk  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>1667  Game Provider Name = EGT   Game Name =  Kangaroo Land  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>1720  Game Provider Name = Microgaming   Game Name =  LaraJonesisCleopatra  src = https://resources.{p}/products/LaraJonesisCleopatra·jpg</t>
-  </si>
-  <si>
-    <t>1848  Game Provider Name = Microgaming   Game Name =  LuckyRiches:Hyperspins  src = https://resources.{p}/products/LuckyRiches:Hyperspins.jpg</t>
-  </si>
-  <si>
-    <t>1897  Game Provider Name = Amatic   Game Name =  Magic Scatter  cod = 404   src = https://resources.baqto.com/products/outcomebet/vikwin/mobile/MagicScatter.png</t>
-  </si>
-  <si>
-    <t>1960  Game Provider Name = Microgaming   Game Name =  Meganova  src = https://resources.{p}/products/Meganova·jpg</t>
-  </si>
-  <si>
-    <t>1979  Game Provider Name = Microgaming   Game Name =  MidnightMadness  src = https://resources.{p}/products/MidnightMadness.jpg</t>
-  </si>
-  <si>
-    <t>2206  Game Provider Name = Microgaming   Game Name =  Pentagram5000  src = https://resources.{p}/products/Pentagram5000.jpg</t>
-  </si>
-  <si>
-    <t>2267  Game Provider Name = Microgaming   Game Name =  Popstar  src = https://resources.{p}/products/Popstar.jpg</t>
-  </si>
-  <si>
-    <t>2354  Game Provider Name = RedTiger   Game Name =  rainbowjackpots  cod = 404   src = https://resources.baqto.com/products/redtiger/mob/rainbow_jackpot.png</t>
-  </si>
-  <si>
-    <t>2417  Game Provider Name = EGT   Game Name =  Retro Style  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>2481  Game Provider Name = Microgaming   Game Name =  RomanPower  src = https://resources.{p}/products/RomanPower.jpg</t>
-  </si>
-  <si>
-    <t>2527  Game Provider Name = Microgaming   Game Name =  SamanthaFox  src = https://resources.{p}/products/SamanthaFoxt·jpg</t>
-  </si>
-  <si>
-    <t>2760  Game Provider Name = Microgaming   Game Name =  SupeitUp  cod = 404   src = https://static.egamings.com/games/mg/supeitup.jpeg</t>
-  </si>
-  <si>
-    <t>2762  Game Provider Name = Microgaming   Game Name =  SuperBarXPullTab  src = https://resources.{p}/products/SuperBarXPullTab.jpg</t>
-  </si>
-  <si>
-    <t>2789  Game Provider Name = Microgaming   Game Name =  SuperSync  src = https://resources.{p}/products/SuperSync.jpg</t>
-  </si>
-  <si>
-    <t>2840  Game Provider Name = Microgaming   Game Name =  Terminator2  cod = 404   src = https://static.egamings.com/games/mg/Terminator2.jpg</t>
-  </si>
-  <si>
-    <t>2858  Game Provider Name = EGT   Game Name =  The Big Journey  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>3196  Game Provider Name = Microgaming   Game Name =  WildReels  src = https://resources.{p}/products/WildReelse.jpg</t>
-  </si>
-  <si>
-    <t>3220  Game Provider Name = RedTiger   Game Name =  wildnords  cod = 404   src = https://resources.baqto.com/products/redtiger/mobile/wild_nords.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>79  Game Provider Name = Spinomenal   Game Name =  100SpinningDice  cod = 404   src = https://resources.baqto.com/products/igt/mob/onehundredpandas.jpg</t>
+  </si>
+  <si>
+    <t>246  Game Provider Name = Betsoft   Game Name =  Arrival  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/ArkofMystery.png</t>
+  </si>
+  <si>
+    <t>348  Game Provider Name = PushGaming   Game Name =  Big Bamboo  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_bbw.jpg</t>
+  </si>
+  <si>
+    <t>352  Game Provider Name = Genii   Game Name =  BigBritishBake  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/BigBotCrew.png</t>
+  </si>
+  <si>
+    <t>491  Game Provider Name = Betsoft   Game Name =  Boomanji  cod = 404   src = https://resources.baqto.com/products/greentube/mobile/book-of-ra-deluxe.png</t>
+  </si>
+  <si>
+    <t>574  Game Provider Name = Leander   Game Name =  Cash Encounters  cod = 404   src = https://resources.baqto.com/products/igt/mob/cashcoaster.jpg</t>
+  </si>
+  <si>
+    <t>648  Game Provider Name = GameArt   Game Name =  AtlantisWorld  cod = 404   src = https://resources.baqto.com/products/igt/mob/cleopatragpe.jpg</t>
+  </si>
+  <si>
+    <t>664  Game Provider Name = Spinomenal   Game Name =  ColossusFruits  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_colossus.jpg</t>
+  </si>
+  <si>
+    <t>709  Game Provider Name = Thunderkick   Game Name =  Crystal Quest 1: DEEP JUNGLE  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_crystalqueen.jpg.jpg</t>
+  </si>
+  <si>
+    <t>739  Game Provider Name = NetEnt   Game Name =  Dazzleme  cod = 404   src = https://resources.baqto.com/products/igt/mob/dayofthedead.jpg</t>
+  </si>
+  <si>
+    <t>779  Game Provider Name = BoomingGames   Game Name =  Diamond Riches  cod = 404   src = https://resources.baqto.com/products/igt/mob/diamondqueen.jpg</t>
+  </si>
+  <si>
+    <t>799  Game Provider Name = Thunderkick   Game Name =  DivineLotus  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/DivineDreams.png</t>
+  </si>
+  <si>
+    <t>849  Game Provider Name = Leander   Game Name =  DragonSlot  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/DragonShrine.png</t>
+  </si>
+  <si>
+    <t>874  Game Provider Name = Yggdrasil   Game Name =  DwarfMine  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/DurianDynamite.png</t>
+  </si>
+  <si>
+    <t>891  Game Provider Name = Booongo   Game Name =  Eggs of Gold  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/EasternEmeralds.png</t>
+  </si>
+  <si>
+    <t>968  Game Provider Name = WACS   Game Name =  Fairy Tales  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/FairyGate.png</t>
+  </si>
+  <si>
+    <t>994  Game Provider Name = Habanero   Game Name =  FireRooster  cod = 404   src = https://resources.baqto.com/products/igt/mob/fireopals.jpg</t>
+  </si>
+  <si>
+    <t>1140  Game Provider Name = Fugaso   Game Name =  GatesofHell  cod = 404   src = https://resources.baqto.com/products/igt/mob//gardenparty.jpg</t>
+  </si>
+  <si>
+    <t>1164  Game Provider Name = PlaynGo   Game Name =  Ghost of Dead  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_geniestouch.jpg</t>
+  </si>
+  <si>
+    <t>1254  Game Provider Name = QuickSpin   Game Name =  Gold Lab  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_goldilocks2.jpg</t>
+  </si>
+  <si>
+    <t>1255  Game Provider Name = Spadegaming   Game Name =  Golf Champions  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_goldlab.jpg</t>
+  </si>
+  <si>
+    <t>1261  Game Provider Name = Fugaso   Game Name =  GrandSumo  cod = 404   src = https://resources.baqto.com/products/igt/mob/grandmonarch.jpg</t>
+  </si>
+  <si>
+    <t>1369  Game Provider Name = Evoplay   Game Name =  Hot Triple Seven Specials  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/HotSync.png</t>
+  </si>
+  <si>
+    <t>1403  Game Provider Name = ISoftBet   Game Name =  Illusions2  cod = 404   src = https://resources.baqto.com/products/quickspin/mob//qso_illuminous.jpg</t>
+  </si>
+  <si>
+    <t>1465  Game Provider Name = Fugaso   Game Name =  JewelSea  cod = 404   src = https://resources.baqto.com/products/igt/mob/jewelofthearts.jpg</t>
+  </si>
+  <si>
+    <t>1550  Game Provider Name = GameArt   Game Name =  Kitty Twins  cod = 404   src = https://resources.baqto.com/products/igt/mob/kittyglitter.jpg</t>
+  </si>
+  <si>
+    <t>1605  Game Provider Name = Platipus   Game Name =  Leprechaun’s Coins  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_leprechaunhills.jpg</t>
+  </si>
+  <si>
+    <t>1678  Game Provider Name = Amatic   Game Name =  Lucky Joker 5  cod = 404   src = https://resources.baqto.com/products/amatic\mob\luckyjoker40.jpg</t>
+  </si>
+  <si>
+    <t>1727  Game Provider Name = Betsoft   Game Name =  MagicShoppe  cod = 404   src = https://resources.baqto.com/products/outcomebet/vikwin/mobile/MagicScatter.png</t>
+  </si>
+  <si>
+    <t>1754  Game Provider Name = PlaynGo   Game Name =  Matsuri  cod = 404   src = https://resources.baqto.com/products/igt/mob/masquesofsanmarco.jpg</t>
+  </si>
+  <si>
+    <t>1761  Game Provider Name = QuickSpin   Game Name =  Mayana  cod = 404   src = https://resources.baqto.com/products/igt/mob/mayanriches.jpg</t>
+  </si>
+  <si>
+    <t>1762  Game Provider Name = RedTiger   Game Name =  mayangods  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_mayana.jpg</t>
+  </si>
+  <si>
+    <t>1796  Game Provider Name = BoomingGames   Game Name =  Mighty Gorilla  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_mightyarthur.jpg</t>
+  </si>
+  <si>
+    <t>1811  Game Provider Name = PlaynGo   Game Name =  MissionCash  cod = 404   src = https://resources.baqto.com/products/igt/mob/missred.jpg</t>
+  </si>
+  <si>
+    <t>1855  Game Provider Name = Habanero   Game Name =  MrBling  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/MountainKing.png</t>
+  </si>
+  <si>
+    <t>1925  Game Provider Name = Genii   Game Name =  NordicWild  cod = 404   src = https://resources.baqto.com/products/igt/mob//noahsark.jpg</t>
+  </si>
+  <si>
+    <t>1928  Game Provider Name = Thunderkick   Game Name =  NotEnoughKittens  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/NorthernSky.png</t>
+  </si>
+  <si>
+    <t>2020  Game Provider Name = RedTiger   Game Name =  phoenixfirepowerreels  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_phoenixsun.jpg</t>
+  </si>
+  <si>
+    <t>2025  Game Provider Name = Platipus   Game Name =  Piedra del Sol  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/PiedPiper.png</t>
+  </si>
+  <si>
+    <t>2048  Game Provider Name = Platipus   Game Name =  Pirate'sMap  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/PiratesCharm.png</t>
+  </si>
+  <si>
+    <t>2095  Game Provider Name = Habanero   Game Name =  PuckerUpPrince  cod = 404   src = https://resources.baqto.com/products/igt/mob/prowlingpanther.jpg</t>
+  </si>
+  <si>
+    <t>2144  Game Provider Name = PlaynGo   Game Name =  RainforestMagic  cod = 404   src = https://resources.baqto.com/products/redtiger/mob/rainbow_jackpot.png</t>
+  </si>
+  <si>
+    <t>2152  Game Provider Name = PlaynGo   Game Name =  Reactoonz  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_sabretooth.jpg</t>
+  </si>
+  <si>
+    <t>2352  Game Provider Name = Microgaming   Game Name =  SecretAdmirer  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_secondstrike.jpg</t>
+  </si>
+  <si>
+    <t>2362  Game Provider Name = Spadegaming   Game Name =  Sexy Vegas  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_sevens.jpg</t>
+  </si>
+  <si>
+    <t>2388  Game Provider Name = Habanero   Game Name =  Sicbo  cod = 404   src = https://resources.baqto.com/products/igt/web/siberianstorm.jpg</t>
+  </si>
+  <si>
+    <t>2457  Game Provider Name = Spinomenal   Game Name =  Spinning Beers  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_spinions.jpg</t>
+  </si>
+  <si>
+    <t>2477  Game Provider Name = NetEnt   Game Name =  StarBurst  cod = 404   src = https://resources.baqto.com/products/igt/mob/startrek.jpg</t>
+  </si>
+  <si>
+    <t>2488  Game Provider Name = BoomingGames   Game Name =  Sticky Bombs  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/qso_stickybandits.jpg</t>
+  </si>
+  <si>
+    <t>2513  Game Provider Name = Ganapati   Game Name =  Sumi-e  cod = 404   src = https://resources.baqto.com/products/igt/mob/sumatranstorm.jpg</t>
+  </si>
+  <si>
+    <t>2581  Game Provider Name = Genii   Game Name =  TalesofTimeTravel  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/TalesofDoctorDolittle.png</t>
+  </si>
+  <si>
+    <t>2818  Game Provider Name = ISoftBet   Game Name =  Vegas High Roller  cod = 404   src = https://resources.baqto.com/products/igt/mob/vegasbaby.jpg</t>
+  </si>
+  <si>
+    <t>2851  Game Provider Name = WACS   Game Name =  VoxSlot  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/VolcanoRiches.png</t>
+  </si>
+  <si>
+    <t>2862  Game Provider Name = Habanero   Game Name =  WaysOfFortune  cod = 404   src = https://resources.baqto.com/products/igt/mob/waterdragons.jpg</t>
+  </si>
+  <si>
+    <t>2872  Game Provider Name = ISoftBet   Game Name =  WesternGoldM-ways  cod = 404   src = https://resources.baqto.com/products/igt/mob/westernbelles.jpg</t>
+  </si>
+  <si>
+    <t>2895  Game Provider Name = Platipus   Game Name =  Wild Crowns  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/WildChase.png</t>
+  </si>
+  <si>
+    <t>2942  Game Provider Name = RedTiger   Game Name =  wildcatsmultiline  cod = 404   src = https://resources.baqto.com/products/igt/mob/wildwolf.jpg</t>
+  </si>
+  <si>
+    <t>2947  Game Provider Name = NetEnt   Game Name =  WildOTron  cod = 404   src = https://resources.baqto.com/products/redtiger/mobile/wild_nords.png</t>
+  </si>
+  <si>
+    <t>2965  Game Provider Name = Spinomenal   Game Name =  Winter’s Gold  cod = 404   src = https://resources.baqto.com/products/quickspin/mob/WinsofFortune.png</t>
+  </si>
+  <si>
+    <t>2989  Game Provider Name = Booongo   Game Name =  Wolf Saga  cod = 404   src = https://resources.baqto.com/products/igt/mob/wolfrun.jpg</t>
   </si>
 </sst>
 </file>
@@ -221,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -505,6 +520,31 @@
         <v>54</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
